--- a/public/meetings.xlsx
+++ b/public/meetings.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -478,9 +478,47 @@
         <v>8a2rho2r87s121g9e6mj1q916c</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>6808cac403c467c05aa00589</v>
+      </c>
+      <c r="B3" t="str">
+        <v>WebSthapana</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Abhijeet - I want to build a website for product managment (Sector: Education)</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Friday, April 25, 2025</v>
+      </c>
+      <c r="E3" t="str">
+        <v>11:00 AM</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <v>completed</v>
+      </c>
+      <c r="H3" t="str">
+        <v>user</v>
+      </c>
+      <c r="I3" t="str">
+        <v>2025-04-25T05:30:00.000Z</v>
+      </c>
+      <c r="J3" t="str">
+        <v>2025-04-25T06:30:00.000Z</v>
+      </c>
+      <c r="K3" t="str">
+        <v>https://meet.google.com/zaj-qhcy-mbt</v>
+      </c>
+      <c r="L3" t="str">
+        <v>7vcm89v2a2jnv8j61f9m2vblhs</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/meetings.xlsx
+++ b/public/meetings.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -516,9 +516,105 @@
         <v>7vcm89v2a2jnv8j61f9m2vblhs</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>67fff822ebfc28c4f18cce0f</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Abhijeet Shinde</v>
+      </c>
+      <c r="C4" t="str">
+        <v>this is real Abhijeet there are not the nfsbvner - neiobnbnioesn io spoiebniosenbo seojbnseoibneioa vseiobnviose vwioebnioes baesiporbnioesb (Sector: Fintech)</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Monday, April 28, 2025</v>
+      </c>
+      <c r="E4" t="str">
+        <v>9:00 AM</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <v>completed</v>
+      </c>
+      <c r="H4" t="str">
+        <v>user</v>
+      </c>
+      <c r="K4" t="str">
+        <v>https://meet.google.com/kzf-ktzn-jmz</v>
+      </c>
+      <c r="L4" t="str">
+        <v>p7481jgmuip6lbdefvgj6rg50o</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>67fff822ebfc28c4f18cce0f</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Abhijeet Shinde</v>
+      </c>
+      <c r="C5" t="str">
+        <v>i want to build a websit for the gol - nvoenbnaev fniosenb (Sector: fintech)</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Monday, April 28, 2025</v>
+      </c>
+      <c r="E5" t="str">
+        <v>9:00 AM</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <v>completed</v>
+      </c>
+      <c r="H5" t="str">
+        <v>user</v>
+      </c>
+      <c r="K5" t="str">
+        <v>https://meet.google.com/nwf-itmx-xme</v>
+      </c>
+      <c r="L5" t="str">
+        <v>8dqe57d19q0gdg19e6rl0u3ga4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>67fff822ebfc28c4f18cce0f</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Abhijeet Shinde</v>
+      </c>
+      <c r="C6" t="str">
+        <v>n n f j jf - sj j jfn jsdnjdsndjikcnewivnwiovnwv (Sector: Education)</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Wednesday, April 30, 2025</v>
+      </c>
+      <c r="E6" t="str">
+        <v>11:00 AM</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
+        <v>completed</v>
+      </c>
+      <c r="H6" t="str">
+        <v>user</v>
+      </c>
+      <c r="K6" t="str">
+        <v>https://meet.google.com/cim-knne-yso</v>
+      </c>
+      <c r="L6" t="str">
+        <v>cui6iqssvmj5sm674a3m8gb2ck</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/meetings.xlsx
+++ b/public/meetings.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,6 +439,9 @@
       <c r="L1" t="str">
         <v>eventId</v>
       </c>
+      <c r="M1" t="str">
+        <v>user_email</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -448,13 +451,13 @@
         <v>WebSthapana</v>
       </c>
       <c r="C2" t="str">
-        <v>mvwmv - wmvkvkv (Sector: Education)</v>
+        <v>i want to build a website - i want to mange the people at work (Sector: Fintech)</v>
       </c>
       <c r="D2" t="str">
-        <v>Thursday, April 24, 2025</v>
+        <v>Monday, April 28, 2025</v>
       </c>
       <c r="E2" t="str">
-        <v>4:00 PM</v>
+        <v>2:00 PM</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -466,33 +469,33 @@
         <v>user</v>
       </c>
       <c r="I2" t="str">
-        <v>2025-04-24T10:30:00.000Z</v>
+        <v>2025-04-28T08:30:00.000Z</v>
       </c>
       <c r="J2" t="str">
-        <v>2025-04-24T11:30:00.000Z</v>
+        <v>2025-04-28T09:30:00.000Z</v>
       </c>
       <c r="K2" t="str">
-        <v>https://meet.google.com/tth-eufj-deu</v>
+        <v>https://meet.google.com/guu-mqgy-bar</v>
       </c>
       <c r="L2" t="str">
-        <v>8a2rho2r87s121g9e6mj1q916c</v>
+        <v>ra1cskapn5rdtfa70u7u2n2r50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>6808cac403c467c05aa00589</v>
+        <v>67fff822ebfc28c4f18cce0f</v>
       </c>
       <c r="B3" t="str">
-        <v>WebSthapana</v>
+        <v>Abhijeet Shinde</v>
       </c>
       <c r="C3" t="str">
-        <v>Abhijeet - I want to build a website for product managment (Sector: Education)</v>
+        <v>jes rjkewr - enbkwnb (Sector: k bkletbn et)</v>
       </c>
       <c r="D3" t="str">
-        <v>Friday, April 25, 2025</v>
+        <v>Monday, April 28, 2025</v>
       </c>
       <c r="E3" t="str">
-        <v>11:00 AM</v>
+        <v>8:00 PM</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -504,117 +507,21 @@
         <v>user</v>
       </c>
       <c r="I3" t="str">
-        <v>2025-04-25T05:30:00.000Z</v>
+        <v>2025-04-28T14:30:00.000Z</v>
       </c>
       <c r="J3" t="str">
-        <v>2025-04-25T06:30:00.000Z</v>
+        <v>2025-04-28T15:30:00.000Z</v>
       </c>
       <c r="K3" t="str">
-        <v>https://meet.google.com/zaj-qhcy-mbt</v>
+        <v>https://meet.google.com/ark-veqw-uay</v>
       </c>
       <c r="L3" t="str">
-        <v>7vcm89v2a2jnv8j61f9m2vblhs</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>67fff822ebfc28c4f18cce0f</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Abhijeet Shinde</v>
-      </c>
-      <c r="C4" t="str">
-        <v>this is real Abhijeet there are not the nfsbvner - neiobnbnioesn io spoiebniosenbo seojbnseoibneioa vseiobnviose vwioebnioes baesiporbnioesb (Sector: Fintech)</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Monday, April 28, 2025</v>
-      </c>
-      <c r="E4" t="str">
-        <v>9:00 AM</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="str">
-        <v>completed</v>
-      </c>
-      <c r="H4" t="str">
-        <v>user</v>
-      </c>
-      <c r="K4" t="str">
-        <v>https://meet.google.com/kzf-ktzn-jmz</v>
-      </c>
-      <c r="L4" t="str">
-        <v>p7481jgmuip6lbdefvgj6rg50o</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>67fff822ebfc28c4f18cce0f</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Abhijeet Shinde</v>
-      </c>
-      <c r="C5" t="str">
-        <v>i want to build a websit for the gol - nvoenbnaev fniosenb (Sector: fintech)</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Monday, April 28, 2025</v>
-      </c>
-      <c r="E5" t="str">
-        <v>9:00 AM</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="str">
-        <v>completed</v>
-      </c>
-      <c r="H5" t="str">
-        <v>user</v>
-      </c>
-      <c r="K5" t="str">
-        <v>https://meet.google.com/nwf-itmx-xme</v>
-      </c>
-      <c r="L5" t="str">
-        <v>8dqe57d19q0gdg19e6rl0u3ga4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>67fff822ebfc28c4f18cce0f</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Abhijeet Shinde</v>
-      </c>
-      <c r="C6" t="str">
-        <v>n n f j jf - sj j jfn jsdnjdsndjikcnewivnwiovnwv (Sector: Education)</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Wednesday, April 30, 2025</v>
-      </c>
-      <c r="E6" t="str">
-        <v>11:00 AM</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="str">
-        <v>completed</v>
-      </c>
-      <c r="H6" t="str">
-        <v>user</v>
-      </c>
-      <c r="K6" t="str">
-        <v>https://meet.google.com/cim-knne-yso</v>
-      </c>
-      <c r="L6" t="str">
-        <v>cui6iqssvmj5sm674a3m8gb2ck</v>
+        <v>7oqh6umrbn1mb96jsus30ng1eg</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/meetings.xlsx
+++ b/public/meetings.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,118 +410,83 @@
         <v>user_name</v>
       </c>
       <c r="C1" t="str">
+        <v>user_email</v>
+      </c>
+      <c r="D1" t="str">
         <v>title</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>selectDay</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>selectTime</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>slot</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>type</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>user_role</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>startDateTime</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>endDateTime</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>meetingLink</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>eventId</v>
-      </c>
-      <c r="M1" t="str">
-        <v>user_email</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>6808cac403c467c05aa00589</v>
+        <v>67fff822ebfc28c4f18cce0f</v>
       </c>
       <c r="B2" t="str">
-        <v>WebSthapana</v>
+        <v>Abhijeet Shinde</v>
       </c>
       <c r="C2" t="str">
-        <v>i want to build a website - i want to mange the people at work (Sector: Fintech)</v>
+        <v>abhijeet2005shinde@gmail.com</v>
       </c>
       <c r="D2" t="str">
-        <v>Monday, April 28, 2025</v>
+        <v>i want to build a meeting - i will build it (Sector: Education)</v>
       </c>
       <c r="E2" t="str">
-        <v>2:00 PM</v>
-      </c>
-      <c r="F2">
+        <v>Tuesday, April 29, 2025</v>
+      </c>
+      <c r="F2" t="str">
+        <v>1:00 PM</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2" t="str">
-        <v>completed</v>
-      </c>
       <c r="H2" t="str">
+        <v>upcoming</v>
+      </c>
+      <c r="I2" t="str">
         <v>user</v>
       </c>
-      <c r="I2" t="str">
-        <v>2025-04-28T08:30:00.000Z</v>
-      </c>
       <c r="J2" t="str">
-        <v>2025-04-28T09:30:00.000Z</v>
+        <v>2025-04-29T07:30:00.000Z</v>
       </c>
       <c r="K2" t="str">
-        <v>https://meet.google.com/guu-mqgy-bar</v>
+        <v>2025-04-29T08:30:00.000Z</v>
       </c>
       <c r="L2" t="str">
-        <v>ra1cskapn5rdtfa70u7u2n2r50</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>67fff822ebfc28c4f18cce0f</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Abhijeet Shinde</v>
-      </c>
-      <c r="C3" t="str">
-        <v>jes rjkewr - enbkwnb (Sector: k bkletbn et)</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Monday, April 28, 2025</v>
-      </c>
-      <c r="E3" t="str">
-        <v>8:00 PM</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="str">
-        <v>completed</v>
-      </c>
-      <c r="H3" t="str">
-        <v>user</v>
-      </c>
-      <c r="I3" t="str">
-        <v>2025-04-28T14:30:00.000Z</v>
-      </c>
-      <c r="J3" t="str">
-        <v>2025-04-28T15:30:00.000Z</v>
-      </c>
-      <c r="K3" t="str">
-        <v>https://meet.google.com/ark-veqw-uay</v>
-      </c>
-      <c r="L3" t="str">
-        <v>7oqh6umrbn1mb96jsus30ng1eg</v>
+        <v>https://meet.google.com/jun-dxpr-ypa</v>
+      </c>
+      <c r="M2" t="str">
+        <v>mdjgmsni4avov6d8fe2ii1rung</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/meetings.xlsx
+++ b/public/meetings.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,33 +413,39 @@
         <v>user_email</v>
       </c>
       <c r="D1" t="str">
-        <v>title</v>
+        <v>brandName</v>
       </c>
       <c r="E1" t="str">
+        <v>phoneNumber</v>
+      </c>
+      <c r="F1" t="str">
+        <v>websiteUrl</v>
+      </c>
+      <c r="G1" t="str">
         <v>selectDay</v>
       </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
         <v>selectTime</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>slot</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>type</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>user_role</v>
       </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>startDateTime</v>
       </c>
-      <c r="K1" t="str">
+      <c r="M1" t="str">
         <v>endDateTime</v>
       </c>
-      <c r="L1" t="str">
+      <c r="N1" t="str">
         <v>meetingLink</v>
       </c>
-      <c r="M1" t="str">
+      <c r="O1" t="str">
         <v>eventId</v>
       </c>
     </row>
@@ -454,39 +460,45 @@
         <v>abhijeet2005shinde@gmail.com</v>
       </c>
       <c r="D2" t="str">
-        <v>i want to build a meeting - i will build it (Sector: Education)</v>
+        <v>yash</v>
       </c>
       <c r="E2" t="str">
-        <v>Tuesday, April 29, 2025</v>
+        <v>9820530968</v>
       </c>
       <c r="F2" t="str">
-        <v>1:00 PM</v>
-      </c>
-      <c r="G2">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v>Wednesday, May 28, 2025</v>
+      </c>
+      <c r="H2" t="str">
+        <v>11:00 AM</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="H2" t="str">
+      <c r="J2" t="str">
         <v>upcoming</v>
       </c>
-      <c r="I2" t="str">
+      <c r="K2" t="str">
         <v>user</v>
       </c>
-      <c r="J2" t="str">
-        <v>2025-04-29T07:30:00.000Z</v>
-      </c>
-      <c r="K2" t="str">
-        <v>2025-04-29T08:30:00.000Z</v>
-      </c>
       <c r="L2" t="str">
-        <v>https://meet.google.com/jun-dxpr-ypa</v>
+        <v>2025-05-28T05:30:00.000Z</v>
       </c>
       <c r="M2" t="str">
-        <v>mdjgmsni4avov6d8fe2ii1rung</v>
+        <v>2025-05-28T06:30:00.000Z</v>
+      </c>
+      <c r="N2" t="str">
+        <v>https://meet.google.com/izh-afeq-bpc</v>
+      </c>
+      <c r="O2" t="str">
+        <v>274ql0hn7cetckdjijai90dp60</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/meetings.xlsx
+++ b/public/meetings.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,9 +496,56 @@
         <v>274ql0hn7cetckdjijai90dp60</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>67fff822ebfc28c4f18cce0f</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Abhijeet Shinde</v>
+      </c>
+      <c r="C3" t="str">
+        <v>abhijeet2005shinde@gmail.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>yash</v>
+      </c>
+      <c r="E3" t="str">
+        <v>9820530968</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v>Wednesday, May 28, 2025</v>
+      </c>
+      <c r="H3" t="str">
+        <v>12:00 PM</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="str">
+        <v>completed</v>
+      </c>
+      <c r="K3" t="str">
+        <v>user</v>
+      </c>
+      <c r="L3" t="str">
+        <v>2025-05-28T06:30:00.000Z</v>
+      </c>
+      <c r="M3" t="str">
+        <v>2025-05-28T07:30:00.000Z</v>
+      </c>
+      <c r="N3" t="str">
+        <v>https://meet.google.com/vsr-zkcr-nud</v>
+      </c>
+      <c r="O3" t="str">
+        <v>6hf5164ie63t3frhf34rnjopvo</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O3"/>
   </ignoredErrors>
 </worksheet>
 </file>